--- a/data/pca/factorExposure/factorExposure_2012-10-26.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-10-26.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-0.002092277045949906</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001799087700537728</v>
+      </c>
+      <c r="C2">
+        <v>0.02939243343227044</v>
+      </c>
+      <c r="D2">
+        <v>0.005063824230983602</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>-0.0009267878714646504</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.007003158866649508</v>
+      </c>
+      <c r="C4">
+        <v>0.08295089421758821</v>
+      </c>
+      <c r="D4">
+        <v>0.07503479444432973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>-0.001351386675953582</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01390325601464463</v>
+      </c>
+      <c r="C6">
+        <v>0.1134288041896819</v>
+      </c>
+      <c r="D6">
+        <v>0.02255778497605974</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>-0.00107847798744599</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004938237649323282</v>
+      </c>
+      <c r="C7">
+        <v>0.05861141114394245</v>
+      </c>
+      <c r="D7">
+        <v>0.03185584293067191</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0002710650411199104</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005625626489461137</v>
+      </c>
+      <c r="C8">
+        <v>0.03491633273746526</v>
+      </c>
+      <c r="D8">
+        <v>0.042073832083092</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>-0.003209297290274657</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.005093801916546925</v>
+      </c>
+      <c r="C9">
+        <v>0.07130188610528593</v>
+      </c>
+      <c r="D9">
+        <v>0.07566836556359889</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>0.001307533168071343</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005668890498095887</v>
+      </c>
+      <c r="C10">
+        <v>0.05719347360066043</v>
+      </c>
+      <c r="D10">
+        <v>-0.1966731263913445</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>-0.003337396523176269</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005691712554824973</v>
+      </c>
+      <c r="C11">
+        <v>0.07974462813824235</v>
+      </c>
+      <c r="D11">
+        <v>0.06421179783594036</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-0.001097741290783893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.004078526520254761</v>
+      </c>
+      <c r="C12">
+        <v>0.06476789389861747</v>
+      </c>
+      <c r="D12">
+        <v>0.05081265339753303</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>0.002267838959397901</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008681613573752172</v>
+      </c>
+      <c r="C13">
+        <v>0.06956261481218802</v>
+      </c>
+      <c r="D13">
+        <v>0.0582601475132596</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>-0.00198780924639531</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.0008225291540665994</v>
+      </c>
+      <c r="C14">
+        <v>0.04338299214819732</v>
+      </c>
+      <c r="D14">
+        <v>0.008428238831076497</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>-0.0009798515262812748</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005976300638516757</v>
+      </c>
+      <c r="C15">
+        <v>0.04074423885291555</v>
+      </c>
+      <c r="D15">
+        <v>0.02994773928569786</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>-0.001462744975417618</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.005043468724319153</v>
+      </c>
+      <c r="C16">
+        <v>0.06428397086772246</v>
+      </c>
+      <c r="D16">
+        <v>0.05623223857901319</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>0.0006614032573600326</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.00908082580218973</v>
+      </c>
+      <c r="C20">
+        <v>0.06491343427199656</v>
+      </c>
+      <c r="D20">
+        <v>0.04741289254388037</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>0.007119936643564852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009694046029214446</v>
+      </c>
+      <c r="C21">
+        <v>0.02033123263548306</v>
+      </c>
+      <c r="D21">
+        <v>0.04308679362271976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>-0.01504953436253522</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.006398275604207894</v>
+      </c>
+      <c r="C22">
+        <v>0.08934920906210267</v>
+      </c>
+      <c r="D22">
+        <v>0.1179434988149588</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>-0.0149592448264623</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006212326240306994</v>
+      </c>
+      <c r="C23">
+        <v>0.08979673856864587</v>
+      </c>
+      <c r="D23">
+        <v>0.1190206194306818</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>-0.002690745729904506</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.005577730442498125</v>
+      </c>
+      <c r="C24">
+        <v>0.07589993679181836</v>
+      </c>
+      <c r="D24">
+        <v>0.06773252782748874</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>-0.004463148449931429</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.003189773607459358</v>
+      </c>
+      <c r="C25">
+        <v>0.07841406193191142</v>
+      </c>
+      <c r="D25">
+        <v>0.06565712713070462</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>-0.003339449010731169</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003689120212508282</v>
+      </c>
+      <c r="C26">
+        <v>0.03914552590041682</v>
+      </c>
+      <c r="D26">
+        <v>0.02544199659674102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>-0.007710866187979627</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001420772036898412</v>
+      </c>
+      <c r="C28">
+        <v>0.1040320287292382</v>
+      </c>
+      <c r="D28">
+        <v>-0.322852713381292</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>-0.001029767722234184</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002618754736115514</v>
+      </c>
+      <c r="C29">
+        <v>0.04877386151522532</v>
+      </c>
+      <c r="D29">
+        <v>0.00908822241319854</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>-0.005583222496063044</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.0096959087907218</v>
+      </c>
+      <c r="C30">
+        <v>0.1417621944014107</v>
+      </c>
+      <c r="D30">
+        <v>0.10781885049032</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>0.0004980441260144969</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.006275002608306551</v>
+      </c>
+      <c r="C31">
+        <v>0.04439330998181348</v>
+      </c>
+      <c r="D31">
+        <v>0.0301611437627261</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0004356213017266273</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003653499841650251</v>
+      </c>
+      <c r="C32">
+        <v>0.04055612267463757</v>
+      </c>
+      <c r="D32">
+        <v>0.02553413317433956</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>-0.002760800314101856</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.008853382686731127</v>
+      </c>
+      <c r="C33">
+        <v>0.08722835585322011</v>
+      </c>
+      <c r="D33">
+        <v>0.06688704789480372</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>-0.004455615758259097</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.00409950490414946</v>
+      </c>
+      <c r="C34">
+        <v>0.05773554968407486</v>
+      </c>
+      <c r="D34">
+        <v>0.05739812129467008</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.0003836667162068786</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.005206195614898161</v>
+      </c>
+      <c r="C35">
+        <v>0.04107487340981282</v>
+      </c>
+      <c r="D35">
+        <v>0.01939555078069253</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>-0.004654080475068908</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001183349029907983</v>
+      </c>
+      <c r="C36">
+        <v>0.0251338959830502</v>
+      </c>
+      <c r="D36">
+        <v>0.02557278477939317</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>0.001088303744572564</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009184560356562206</v>
+      </c>
+      <c r="C38">
+        <v>0.0367181503210482</v>
+      </c>
+      <c r="D38">
+        <v>0.01583054828300192</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>-0.01345473523056144</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.0009522139850678038</v>
+      </c>
+      <c r="C39">
+        <v>0.1143339973053624</v>
+      </c>
+      <c r="D39">
+        <v>0.07876894421919349</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>-0.007457819141755962</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.00371551058570688</v>
+      </c>
+      <c r="C40">
+        <v>0.09092734573600998</v>
+      </c>
+      <c r="D40">
+        <v>0.01567750101937945</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0007350718699657722</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.0071402145633419</v>
+      </c>
+      <c r="C41">
+        <v>0.03832461106925589</v>
+      </c>
+      <c r="D41">
+        <v>0.03910964423284895</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>-0.00307738663655823</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003931432331035333</v>
+      </c>
+      <c r="C43">
+        <v>0.05342447334973844</v>
+      </c>
+      <c r="D43">
+        <v>0.02675016474789711</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>-0.01329567387754607</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003049793829003028</v>
+      </c>
+      <c r="C44">
+        <v>0.10632608115717</v>
+      </c>
+      <c r="D44">
+        <v>0.06709785067769121</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>-0.001124156971040962</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.001772682502615016</v>
+      </c>
+      <c r="C46">
+        <v>0.03296905575139345</v>
+      </c>
+      <c r="D46">
+        <v>0.0336690018307742</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.002112701198471182</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002204552942734798</v>
+      </c>
+      <c r="C47">
+        <v>0.03646747297789233</v>
+      </c>
+      <c r="D47">
+        <v>0.02070976126757057</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>0.003989181127487692</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006632401277609985</v>
+      </c>
+      <c r="C48">
+        <v>0.03003781651256294</v>
+      </c>
+      <c r="D48">
+        <v>0.03699276751074428</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>-0.009977321671867477</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01734099170638164</v>
+      </c>
+      <c r="C49">
+        <v>0.1883704497558994</v>
+      </c>
+      <c r="D49">
+        <v>0.007336920452752159</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>-0.001420588026293895</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.00353833442017011</v>
+      </c>
+      <c r="C50">
+        <v>0.04297100458585782</v>
+      </c>
+      <c r="D50">
+        <v>0.03823959942405594</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>0.0007007712796901065</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004779520910902065</v>
+      </c>
+      <c r="C51">
+        <v>0.02569495681496075</v>
+      </c>
+      <c r="D51">
+        <v>0.0223719151345348</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>0.001271007752835038</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.02116326167013219</v>
+      </c>
+      <c r="C53">
+        <v>0.1700853070338152</v>
+      </c>
+      <c r="D53">
+        <v>0.02489660951249887</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>0.002137229027939825</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008906182918040746</v>
+      </c>
+      <c r="C54">
+        <v>0.05435425934034997</v>
+      </c>
+      <c r="D54">
+        <v>0.04472448804043338</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>-0.004230022147151269</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009623357851470475</v>
+      </c>
+      <c r="C55">
+        <v>0.1085916615704468</v>
+      </c>
+      <c r="D55">
+        <v>0.03890791671323938</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>0.002374394826457914</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.02001221084646693</v>
+      </c>
+      <c r="C56">
+        <v>0.1761558291523335</v>
+      </c>
+      <c r="D56">
+        <v>0.01474677031741364</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>-0.004688299688768336</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01961600697521346</v>
+      </c>
+      <c r="C58">
+        <v>0.1089966009833772</v>
+      </c>
+      <c r="D58">
+        <v>0.06418856178517214</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>-0.00953298256616316</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.009797251768819478</v>
+      </c>
+      <c r="C59">
+        <v>0.1647899510992133</v>
+      </c>
+      <c r="D59">
+        <v>-0.3368539389597394</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>-0.004114133764119777</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02515912731819506</v>
+      </c>
+      <c r="C60">
+        <v>0.2246707323512491</v>
+      </c>
+      <c r="D60">
+        <v>0.02273731987534573</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>-0.01379300681795078</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.001875481365119279</v>
+      </c>
+      <c r="C61">
+        <v>0.09449486015995685</v>
+      </c>
+      <c r="D61">
+        <v>0.05828361310379939</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>0.1586129581432979</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1486943735658345</v>
+      </c>
+      <c r="C62">
+        <v>0.09549856850906838</v>
+      </c>
+      <c r="D62">
+        <v>0.02688867534260428</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>-0.0001708626940248335</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00662220207954818</v>
+      </c>
+      <c r="C63">
+        <v>0.05423940083137132</v>
+      </c>
+      <c r="D63">
+        <v>0.0307482231032857</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.002166507477484483</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.0158380711661432</v>
+      </c>
+      <c r="C64">
+        <v>0.1039939583245723</v>
+      </c>
+      <c r="D64">
+        <v>0.05835533303327796</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>0.002183684605053483</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01792761550127354</v>
+      </c>
+      <c r="C65">
+        <v>0.1236850178189808</v>
+      </c>
+      <c r="D65">
+        <v>0.02021359868278874</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>-0.004403976577926076</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.0134176878305867</v>
+      </c>
+      <c r="C66">
+        <v>0.1588933425655682</v>
+      </c>
+      <c r="D66">
+        <v>0.113513647575044</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>0.003018760278720546</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01548245749878722</v>
+      </c>
+      <c r="C67">
+        <v>0.06818276468808594</v>
+      </c>
+      <c r="D67">
+        <v>0.02833269635227792</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>-0.007163511203144532</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.000887166350961679</v>
+      </c>
+      <c r="C68">
+        <v>0.08688491864176215</v>
+      </c>
+      <c r="D68">
+        <v>-0.2581613383887902</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>-0.001583893590502568</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.006218422155764262</v>
+      </c>
+      <c r="C69">
+        <v>0.05125887194842684</v>
+      </c>
+      <c r="D69">
+        <v>0.03807550027557779</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0004382628155631996</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001962827960025657</v>
+      </c>
+      <c r="C70">
+        <v>0.005065608176042777</v>
+      </c>
+      <c r="D70">
+        <v>0.002242941944356473</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>-0.00210664796253508</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005509410538692164</v>
+      </c>
+      <c r="C71">
+        <v>0.09176631089538363</v>
+      </c>
+      <c r="D71">
+        <v>-0.3039806171331161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>-0.003781770817902257</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01664187548207851</v>
+      </c>
+      <c r="C72">
+        <v>0.1558189296818438</v>
+      </c>
+      <c r="D72">
+        <v>0.01427413665260561</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>-0.0109720282261338</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.03188342248673696</v>
+      </c>
+      <c r="C73">
+        <v>0.2833513308506974</v>
+      </c>
+      <c r="D73">
+        <v>0.05323690258488736</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>-0.005740301505349283</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.002026663206013367</v>
+      </c>
+      <c r="C74">
+        <v>0.1024329819844693</v>
+      </c>
+      <c r="D74">
+        <v>0.03636012216146154</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>-0.004081967980435198</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01134060654676537</v>
+      </c>
+      <c r="C75">
+        <v>0.1231993215896977</v>
+      </c>
+      <c r="D75">
+        <v>0.02170440793240879</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>0.006433215653951956</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02231859233042418</v>
+      </c>
+      <c r="C76">
+        <v>0.1484685160658423</v>
+      </c>
+      <c r="D76">
+        <v>0.05689723341287208</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>0.001815649240321344</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02174107260605408</v>
+      </c>
+      <c r="C77">
+        <v>0.1130719356257072</v>
+      </c>
+      <c r="D77">
+        <v>0.05234626557475529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>0.001599162105387782</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01502668771989885</v>
+      </c>
+      <c r="C78">
+        <v>0.09658619155982244</v>
+      </c>
+      <c r="D78">
+        <v>0.07609911013218165</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>0.02270568026422841</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.038555752093343</v>
+      </c>
+      <c r="C79">
+        <v>0.1573155066009886</v>
+      </c>
+      <c r="D79">
+        <v>0.03113851859774201</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>0.007477245120587219</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01005825716665814</v>
+      </c>
+      <c r="C80">
+        <v>0.03840836604312594</v>
+      </c>
+      <c r="D80">
+        <v>0.03107337788399596</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.001496008047786078</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01583286930884168</v>
+      </c>
+      <c r="C81">
+        <v>0.1298237019611987</v>
+      </c>
+      <c r="D81">
+        <v>0.03815426411245817</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>0.003832924893976258</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.0200994035435962</v>
+      </c>
+      <c r="C82">
+        <v>0.1386058791026098</v>
+      </c>
+      <c r="D82">
+        <v>0.04279010480923389</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>-0.006513363463822149</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.01058215222206207</v>
+      </c>
+      <c r="C83">
+        <v>0.05919130733721174</v>
+      </c>
+      <c r="D83">
+        <v>0.04887820424764559</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>0.0138251768964347</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01186886150404299</v>
+      </c>
+      <c r="C84">
+        <v>0.03726616060832023</v>
+      </c>
+      <c r="D84">
+        <v>-0.005333615149409773</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>0.01427873178108346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02949336150195059</v>
+      </c>
+      <c r="C85">
+        <v>0.124931883797703</v>
+      </c>
+      <c r="D85">
+        <v>0.04027944444031246</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>-0.0006512396906762824</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.004570679761993169</v>
+      </c>
+      <c r="C86">
+        <v>0.04925530735745159</v>
+      </c>
+      <c r="D86">
+        <v>0.03035777447392045</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>-0.003500030846488765</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01077393671435437</v>
+      </c>
+      <c r="C87">
+        <v>0.1283555749297472</v>
+      </c>
+      <c r="D87">
+        <v>0.07456078132291996</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>-0.01155285804481257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.002897107326633954</v>
+      </c>
+      <c r="C88">
+        <v>0.06350620047327266</v>
+      </c>
+      <c r="D88">
+        <v>0.02594921736819595</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>-0.01508575546624886</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.001919748049987856</v>
+      </c>
+      <c r="C89">
+        <v>0.1395752008340483</v>
+      </c>
+      <c r="D89">
+        <v>-0.3198097861954725</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>-0.004476031108010194</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006500329164718722</v>
+      </c>
+      <c r="C90">
+        <v>0.1194083506110501</v>
+      </c>
+      <c r="D90">
+        <v>-0.3141440736879595</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.001031650624846923</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.01051569727177748</v>
+      </c>
+      <c r="C91">
+        <v>0.09975019852309563</v>
+      </c>
+      <c r="D91">
+        <v>0.02550870175247045</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>-0.01174986640943671</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>0.0003821622914195</v>
+      </c>
+      <c r="C92">
+        <v>0.13479761841444</v>
+      </c>
+      <c r="D92">
+        <v>-0.32589194749892</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>-0.002225961831193312</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004487104500863894</v>
+      </c>
+      <c r="C93">
+        <v>0.1049276883802687</v>
+      </c>
+      <c r="D93">
+        <v>-0.3004107960711864</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>0.0008133869290705808</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02193268249186641</v>
+      </c>
+      <c r="C94">
+        <v>0.1444492043479833</v>
+      </c>
+      <c r="D94">
+        <v>0.05126147318627337</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>-0.002260184705456793</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01664718605838133</v>
+      </c>
+      <c r="C95">
+        <v>0.1213428782202807</v>
+      </c>
+      <c r="D95">
+        <v>0.06586290109057936</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.0008435001996280678</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03694782368007847</v>
+      </c>
+      <c r="C97">
+        <v>0.2237622355442438</v>
+      </c>
+      <c r="D97">
+        <v>-0.001611067970761468</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>-0.002392367785030219</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03793292682333484</v>
+      </c>
+      <c r="C98">
+        <v>0.2533271162294318</v>
+      </c>
+      <c r="D98">
+        <v>0.04118718258976947</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>0.9855522009025512</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9813585327933577</v>
+      </c>
+      <c r="C99">
+        <v>-0.1197438491590613</v>
+      </c>
+      <c r="D99">
+        <v>-0.02490113658951581</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>-0.0009471740477144064</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002661337669731788</v>
+      </c>
+      <c r="C101">
+        <v>0.04890937694009707</v>
+      </c>
+      <c r="D101">
+        <v>0.009472515048545606</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
